--- a/TekniskDokumentasjon/plan.xlsx
+++ b/TekniskDokumentasjon/plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\August\OneDrive - Osloskolen\August_IMI\August_2IMI\Arsoppgave\TekniskDokumentasjon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CB9291-65D1-4438-8F5A-631036CB20C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74DC27B-AA41-48EF-9FE0-E071ED80BBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -230,6 +230,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,22 +249,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +536,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection sqref="A1:AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -549,53 +546,53 @@
   <sheetData>
     <row r="1" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="6"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="9"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
     </row>
     <row r="2" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -614,7 +611,7 @@
       <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="3">
         <v>1</v>
       </c>
@@ -630,7 +627,7 @@
       <c r="L2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="3">
         <v>1</v>
       </c>
@@ -646,7 +643,7 @@
       <c r="R2" s="3">
         <v>5</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="3">
         <v>1</v>
       </c>
@@ -678,7 +675,7 @@
       <c r="AD2" s="3">
         <v>5</v>
       </c>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="3">
         <v>1</v>
       </c>
@@ -696,247 +693,247 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
     </row>
     <row r="4" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
     </row>
     <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
     </row>
     <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
       <c r="AK7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
